--- a/3.results/model_selection/sterne_pierregarin_R_3_blocks_assemblage.xlsx
+++ b/3.results/model_selection/sterne_pierregarin_R_3_blocks_assemblage.xlsx
@@ -1,139 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\stage_M2\3.results\model_selection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF26C61-24E0-4307-9949-8CD51C63571E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="blocks" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="blocks" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhat_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d1_gr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d1_gr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d2_gr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d2_gr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_log_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_spring_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_winter_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_sd_SAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_log_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_spring_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_winter_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_sd_SAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_CHL + sd_SAL + mean_SSH + sd_SSH + log_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_bathymetry + mean_CHL + sd_SAL + mean_SSH + sd_SSH + log_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_bathymetry + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_CHL + sd_SAL + mean_SSH + sd_SSH + log_sd_VEL + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_bathymetry + mean_CHL + sd_SAL + mean_SSH + sd_SSH + log_sd_VEL + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>rhat_max</t>
+  </si>
+  <si>
+    <t>ESS_min</t>
+  </si>
+  <si>
+    <t>pvalue_d1_gr1</t>
+  </si>
+  <si>
+    <t>pvalue_d1_gr2</t>
+  </si>
+  <si>
+    <t>pvalue_d2_gr1</t>
+  </si>
+  <si>
+    <t>pvalue_d2_gr2</t>
+  </si>
+  <si>
+    <t>waic_d1</t>
+  </si>
+  <si>
+    <t>waic_d2</t>
+  </si>
+  <si>
+    <t>waic_tot</t>
+  </si>
+  <si>
+    <t>CV_d1</t>
+  </si>
+  <si>
+    <t>CV_d2</t>
+  </si>
+  <si>
+    <t>CV_tot</t>
+  </si>
+  <si>
+    <t>beta_log_bathymetry</t>
+  </si>
+  <si>
+    <t>beta_log_sd_VEL</t>
+  </si>
+  <si>
+    <t>beta_mean_CHL</t>
+  </si>
+  <si>
+    <t>beta_mean_spring_SST</t>
+  </si>
+  <si>
+    <t>beta_mean_SSH</t>
+  </si>
+  <si>
+    <t>beta_mean_summer_SST</t>
+  </si>
+  <si>
+    <t>beta_mean_winter_SST</t>
+  </si>
+  <si>
+    <t>beta_sd_SAL</t>
+  </si>
+  <si>
+    <t>beta_sd_SSH</t>
+  </si>
+  <si>
+    <t>sd_beta_log_bathymetry</t>
+  </si>
+  <si>
+    <t>sd_beta_log_sd_VEL</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_CHL</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_spring_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_SSH</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_summer_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_winter_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_sd_SAL</t>
+  </si>
+  <si>
+    <t>sd_beta_sd_SSH</t>
+  </si>
+  <si>
+    <t>log_bathymetry</t>
+  </si>
+  <si>
+    <t>mean_CHL + sd_SAL + mean_SSH + sd_SSH + log_sd_VEL</t>
+  </si>
+  <si>
+    <t>mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+  </si>
+  <si>
+    <t>log_bathymetry + mean_CHL + sd_SAL + mean_SSH + sd_SSH + log_sd_VEL</t>
+  </si>
+  <si>
+    <t>log_bathymetry + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+  </si>
+  <si>
+    <t>mean_CHL + sd_SAL + mean_SSH + sd_SSH + log_sd_VEL + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+  </si>
+  <si>
+    <t>log_bathymetry + mean_CHL + sd_SAL + mean_SSH + sd_SSH + log_sd_VEL + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -147,12 +154,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,16 +180,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
@@ -189,15 +253,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-        <b/>
-      </font>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -479,14 +544,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,47 +648,47 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>1.005</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>504.7</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="B2" s="1">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>489.6</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.13</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="E2" s="1">
         <v>0.49</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="F2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="H2" s="1">
         <v>777</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>191</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="1">
         <v>968</v>
       </c>
-      <c r="K2" s="1" t="n">
-        <v>772</v>
-      </c>
-      <c r="L2" s="1" t="n">
+      <c r="K2" s="1">
+        <v>773</v>
+      </c>
+      <c r="L2" s="1">
         <v>193</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>965</v>
-      </c>
-      <c r="N2" s="1" t="n">
+      <c r="M2" s="1">
+        <v>966</v>
+      </c>
+      <c r="N2" s="1">
         <v>-1.86</v>
       </c>
       <c r="O2" s="1"/>
@@ -632,8 +699,8 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1" t="n">
-        <v>0.5</v>
+      <c r="W2" s="1">
+        <v>0.52</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -644,480 +711,480 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1.024</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>511.4</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="B3" s="1">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>569.6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.51</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>0.26</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>0.5</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>740</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="J3" s="1" t="n">
+      <c r="I3" s="1">
+        <v>186</v>
+      </c>
+      <c r="J3" s="1">
+        <v>926</v>
+      </c>
+      <c r="K3" s="1">
+        <v>738</v>
+      </c>
+      <c r="L3" s="1">
+        <v>189</v>
+      </c>
+      <c r="M3" s="1">
         <v>927</v>
       </c>
-      <c r="K3" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>927</v>
-      </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="1">
         <v>0.27</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="1">
         <v>-1.24</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="1">
         <v>1.98</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="1">
         <v>-1.07</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="1">
         <v>0.02</v>
       </c>
-      <c r="V3" s="1" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="W3" s="1" t="n">
+      <c r="V3" s="1">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="W3" s="1">
         <v>0.73</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="X3" s="1">
         <v>0.38</v>
       </c>
-      <c r="Y3" s="1" t="n">
+      <c r="Y3" s="1">
         <v>0.62</v>
       </c>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1" t="n">
+      <c r="AA3" s="1">
         <v>0.62</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1" t="n">
+      <c r="AD3" s="1">
         <v>0.42</v>
       </c>
-      <c r="AE3" s="1" t="n">
+      <c r="AE3" s="1">
         <v>0.44</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>1.034</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="B4" s="1">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>420.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.27</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="1" t="n">
+      <c r="G4" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H4" s="1">
         <v>743</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="1">
         <v>178</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="1">
         <v>921</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="L4" s="1" t="n">
+      <c r="K4" s="1">
+        <v>739</v>
+      </c>
+      <c r="L4" s="1">
         <v>180</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <v>920</v>
-      </c>
-      <c r="N4" s="1" t="n">
+      <c r="M4" s="1">
+        <v>919</v>
+      </c>
+      <c r="N4" s="1">
         <v>0.63</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="1">
         <v>-1.26</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="1">
         <v>1.41</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="1">
         <v>-0.19</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="1">
         <v>0.05</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="1">
         <v>-1.32</v>
       </c>
-      <c r="T4" s="1" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="U4" s="1" t="n">
+      <c r="T4" s="1">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="U4" s="1">
         <v>-0.36</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="V4" s="1">
         <v>-1.08</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="W4" s="1">
         <v>0.92</v>
       </c>
-      <c r="X4" s="1" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Z4" s="1" t="n">
+      <c r="X4" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="Z4" s="1">
         <v>0.74</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AA4" s="1">
         <v>0.95</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AB4" s="1">
         <v>0.9</v>
       </c>
-      <c r="AC4" s="1" t="n">
+      <c r="AC4" s="1">
         <v>0.74</v>
       </c>
-      <c r="AD4" s="1" t="n">
+      <c r="AD4" s="1">
         <v>0.54</v>
       </c>
-      <c r="AE4" s="1" t="n">
+      <c r="AE4" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1.135</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>494.6</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="B5" s="1">
+        <v>1.127</v>
+      </c>
+      <c r="C5" s="1">
+        <v>563</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.51</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>0.27</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>0.51</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>741</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="1">
         <v>188</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="1">
         <v>929</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="L5" s="1" t="n">
+      <c r="K5" s="1">
+        <v>736</v>
+      </c>
+      <c r="L5" s="1">
         <v>191</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <v>928</v>
-      </c>
-      <c r="N5" s="1" t="n">
+      <c r="M5" s="1">
+        <v>927</v>
+      </c>
+      <c r="N5" s="1">
         <v>0.64</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="n">
+      <c r="Q5" s="1">
         <v>1.48</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="1" t="n">
+      <c r="S5" s="1">
         <v>-2.87</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="T5" s="1">
         <v>-1.17</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1" t="n">
+      <c r="W5" s="1">
         <v>0.77</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1" t="n">
+      <c r="Z5" s="1">
         <v>0.42</v>
       </c>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AB5" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AC5" s="1">
         <v>0.53</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>1.059</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>429.1</v>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="B6" s="1">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>432.6</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.12</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>0.5</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="1" t="n">
+      <c r="F6" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H6" s="1">
         <v>742</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>179</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="1">
         <v>921</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="1">
         <v>739</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="1">
         <v>181</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="1">
         <v>920</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1" t="n">
+      <c r="O6" s="1">
         <v>-1.19</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="P6" s="1">
         <v>1.87</v>
       </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="n">
+      <c r="R6" s="1">
         <v>-1.05</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1" t="n">
+      <c r="U6" s="1">
         <v>0.04</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="V6" s="1">
         <v>-0.67</v>
       </c>
       <c r="W6" s="1"/>
-      <c r="X6" s="1" t="n">
+      <c r="X6" s="1">
         <v>0.36</v>
       </c>
-      <c r="Y6" s="1" t="n">
-        <v>0.56</v>
+      <c r="Y6" s="1">
+        <v>0.56000000000000005</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1" t="n">
+      <c r="AA6" s="1">
         <v>0.62</v>
       </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1" t="n">
+      <c r="AD6" s="1">
         <v>0.4</v>
       </c>
-      <c r="AE6" s="1" t="n">
-        <v>0.4</v>
+      <c r="AE6" s="1">
+        <v>0.39</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>362.1</v>
-      </c>
-      <c r="D7" s="1" t="n">
+      <c r="B7" s="1">
+        <v>1.071</v>
+      </c>
+      <c r="C7" s="1">
+        <v>449.5</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.13</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="G7" s="1" t="n">
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>741</v>
+      </c>
+      <c r="I7" s="1">
+        <v>185</v>
+      </c>
+      <c r="J7" s="1">
+        <v>926</v>
+      </c>
+      <c r="K7" s="1">
+        <v>745</v>
+      </c>
+      <c r="L7" s="1">
+        <v>189</v>
+      </c>
+      <c r="M7" s="1">
+        <v>934</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-0.16</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-0.23</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-1.17</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-1.08</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="AD7" s="1">
         <v>0.51</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>926</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>936</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q7" s="1" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="R7" s="1" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="T7" s="1" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="U7" s="1" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="V7" s="1" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Y7" s="1" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="Z7" s="1" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AA7" s="1" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB7" s="1" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AC7" s="1" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AD7" s="1" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AE7" s="1" t="n">
+      <c r="AE7" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1.122</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>324.4</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="B8" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="C8" s="1">
+        <v>365.3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.26</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H8" s="1" t="n">
+      <c r="G8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1">
         <v>740</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="1">
         <v>186</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="1">
         <v>926</v>
       </c>
-      <c r="K8" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="L8" s="1" t="n">
+      <c r="K8" s="1">
+        <v>745</v>
+      </c>
+      <c r="L8" s="1">
         <v>190</v>
       </c>
-      <c r="M8" s="1" t="n">
-        <v>936</v>
+      <c r="M8" s="1">
+        <v>935</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="n">
+      <c r="Q8" s="1">
         <v>1.4</v>
       </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="1" t="n">
+      <c r="S8" s="1">
         <v>-2.72</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="T8" s="1">
         <v>-0.84</v>
       </c>
       <c r="U8" s="1"/>
@@ -1125,45 +1192,30 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1" t="n">
+      <c r="Z8" s="1">
         <v>0.4</v>
       </c>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="1" t="n">
+      <c r="AB8" s="1">
         <v>0.53</v>
       </c>
-      <c r="AC8" s="1" t="n">
-        <v>0.36</v>
+      <c r="AC8" s="1">
+        <v>0.35</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G8">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
+  <conditionalFormatting sqref="D2:G8">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H8">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>H2&lt;743</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1172,11 +1224,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>H2&lt;743</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>I2&lt;181</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1185,11 +1237,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>I2&lt;181</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J8">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>J2&lt;924</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1198,11 +1250,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>J2&lt;924</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K8">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>K2&lt;739</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1211,11 +1263,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>K2&lt;740</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>L2&lt;183</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1224,11 +1276,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L2&lt;183</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M8">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>M2&lt;922</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1237,11 +1289,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>M2&lt;923</formula>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>